--- a/biology/Médecine/Louis_Alfred_Becquerel/Louis_Alfred_Becquerel.xlsx
+++ b/biology/Médecine/Louis_Alfred_Becquerel/Louis_Alfred_Becquerel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Alfred Becquerel (né le 3 juin 1814 à Paris et mort le 10 mars 1862 à Paris) était un médecin chercheur et un physicien français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils aîné d'Antoine César Becquerel, il entre comme médecin à la Pitié. Nommé officier de la Légion d'honneur en 1845[1], Becquerel collabore avec Maxime Vernois à deux ouvrages en 1853 et 1856. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils aîné d'Antoine César Becquerel, il entre comme médecin à la Pitié. Nommé officier de la Légion d'honneur en 1845, Becquerel collabore avec Maxime Vernois à deux ouvrages en 1853 et 1856. 
 Il est le frère d'Alexandre Edmond Becquerel. 
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recherches cliniques sur la méningite des enfants, 1838
 Sur les affections tuberculeuses et le carreau, 1840
